--- a/config_3.23/game_module_config.xlsx
+++ b/config_3.23/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4930,10 +4930,10 @@
   <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C302" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C322" sqref="C322"/>
+      <selection pane="bottomRight" activeCell="G296" sqref="G296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12245,29 +12245,29 @@
         <v>850</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="16" customFormat="1">
-      <c r="A288" s="15">
+    <row r="288" spans="1:9" s="45" customFormat="1">
+      <c r="A288" s="42">
         <v>287</v>
       </c>
-      <c r="B288" s="23" t="s">
+      <c r="B288" s="46" t="s">
         <v>851</v>
       </c>
-      <c r="C288" s="14" t="s">
+      <c r="C288" s="44" t="s">
         <v>852</v>
       </c>
-      <c r="D288" s="14" t="s">
+      <c r="D288" s="44" t="s">
         <v>853</v>
       </c>
-      <c r="E288" s="16">
-        <v>0</v>
-      </c>
-      <c r="F288" s="16">
-        <v>0</v>
-      </c>
-      <c r="G288" s="16">
-        <v>0</v>
-      </c>
-      <c r="I288" s="14" t="s">
+      <c r="E288" s="45">
+        <v>1</v>
+      </c>
+      <c r="F288" s="45">
+        <v>1</v>
+      </c>
+      <c r="G288" s="45">
+        <v>1</v>
+      </c>
+      <c r="I288" s="44" t="s">
         <v>946</v>
       </c>
     </row>
@@ -12817,29 +12817,29 @@
         <v>919</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="45" customFormat="1">
-      <c r="A310" s="42">
+    <row r="310" spans="1:9" s="16" customFormat="1">
+      <c r="A310" s="15">
         <v>309</v>
       </c>
-      <c r="B310" s="43" t="s">
+      <c r="B310" s="17" t="s">
         <v>920</v>
       </c>
-      <c r="C310" s="44" t="s">
+      <c r="C310" s="14" t="s">
         <v>922</v>
       </c>
-      <c r="D310" s="43" t="s">
+      <c r="D310" s="17" t="s">
         <v>921</v>
       </c>
-      <c r="E310" s="45">
-        <v>1</v>
-      </c>
-      <c r="F310" s="45">
-        <v>1</v>
-      </c>
-      <c r="G310" s="45">
-        <v>1</v>
-      </c>
-      <c r="I310" s="44" t="s">
+      <c r="E310" s="16">
+        <v>0</v>
+      </c>
+      <c r="F310" s="16">
+        <v>0</v>
+      </c>
+      <c r="G310" s="16">
+        <v>0</v>
+      </c>
+      <c r="I310" s="14" t="s">
         <v>927</v>
       </c>
     </row>

--- a/config_3.23/game_module_config.xlsx
+++ b/config_3.23/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1024">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4286,10 +4286,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_006_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>扩展活动皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4299,6 +4295,14 @@
   </si>
   <si>
     <t>act_ty_sjb_style/act_008_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_007_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月29日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4930,10 +4934,10 @@
   <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C284" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D302" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G296" sqref="G296"/>
+      <selection pane="bottomRight" activeCell="I321" sqref="I321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13001,7 +13005,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="43" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C317" s="44" t="s">
         <v>1017</v>
@@ -13016,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="44" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="45" customFormat="1">
@@ -13039,7 +13043,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="44" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="45" customFormat="1">
@@ -13047,7 +13051,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="43" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C319" s="44" t="s">
         <v>1010</v>
@@ -13062,7 +13066,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="44" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="45" customFormat="1">
@@ -13096,7 +13100,7 @@
         <v>1013</v>
       </c>
       <c r="C321" s="44" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E321" s="45">
         <v>1</v>

--- a/config_3.23/game_module_config.xlsx
+++ b/config_3.23/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1023">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4263,10 +4263,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_009</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_lb1_style/act_002_tylb1</t>
   </si>
   <si>
@@ -4274,10 +4270,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_010_taohua</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落排行榜皮肤（桃花）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4290,19 +4282,23 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>3月22日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_008_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_by_hhl_style/act_007_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3月29日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_011_boss</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_009_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_010</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4934,10 +4930,10 @@
   <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D302" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I321" sqref="I321"/>
+      <selection pane="bottomRight" activeCell="I320" sqref="I320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13008,7 +13004,7 @@
         <v>1021</v>
       </c>
       <c r="C317" s="44" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E317" s="45">
         <v>1</v>
@@ -13020,7 +13016,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="44" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="45" customFormat="1">
@@ -13028,11 +13024,11 @@
         <v>317</v>
       </c>
       <c r="B318" s="43" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C318" s="44" t="s">
         <v>1016</v>
       </c>
-      <c r="C318" s="44" t="s">
-        <v>1018</v>
-      </c>
       <c r="E318" s="45">
         <v>1</v>
       </c>
@@ -13043,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="44" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="45" customFormat="1">
@@ -13051,7 +13047,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="43" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C319" s="44" t="s">
         <v>1010</v>
@@ -13066,7 +13062,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="44" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="45" customFormat="1">
@@ -13097,10 +13093,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="49" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="C321" s="44" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E321" s="45">
         <v>1</v>
@@ -13146,10 +13142,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="50" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C323" s="14" t="s">
         <v>1014</v>
-      </c>
-      <c r="C323" s="14" t="s">
-        <v>1015</v>
       </c>
       <c r="D323" s="17"/>
       <c r="E323" s="16">
